--- a/data/predictions/gender/gay_marr/leveled/strongrepublican.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/strongrepublican.xlsx
@@ -742,10 +742,10 @@
         <v>0.2621723564503224</v>
       </c>
       <c r="D34">
-        <v>0.1362987180720237</v>
+        <v>0.1682285551383877</v>
       </c>
       <c r="G34">
-        <v>0.1914280345065699</v>
+        <v>0.2789936107289563</v>
       </c>
       <c r="I34">
         <v>0.1895720598665457</v>
@@ -762,10 +762,10 @@
         <v>0.2478404361588975</v>
       </c>
       <c r="D35">
-        <v>0.1392071536061193</v>
+        <v>0.2096426249952437</v>
       </c>
       <c r="G35">
-        <v>0.1886946089907477</v>
+        <v>0.2176625606920313</v>
       </c>
       <c r="I35">
         <v>0.2435271554367473</v>
@@ -782,10 +782,10 @@
         <v>0.2208794802458156</v>
       </c>
       <c r="D36">
-        <v>0.1401803901574824</v>
+        <v>0.09720201478842669</v>
       </c>
       <c r="G36">
-        <v>0.1858101240494288</v>
+        <v>0.2428309851705463</v>
       </c>
       <c r="I36">
         <v>0.2302533182302009</v>
@@ -802,10 +802,10 @@
         <v>0.188845193328375</v>
       </c>
       <c r="D37">
-        <v>0.1419439938650246</v>
+        <v>0.194315681146793</v>
       </c>
       <c r="G37">
-        <v>0.1829247205653049</v>
+        <v>0.1830071129681081</v>
       </c>
       <c r="I37">
         <v>0.2684720978969867</v>
@@ -822,10 +822,10 @@
         <v>0.15477284996301</v>
       </c>
       <c r="D38">
-        <v>0.1433847986009155</v>
+        <v>0.1464030252769004</v>
       </c>
       <c r="G38">
-        <v>0.1800393114958236</v>
+        <v>0.2198792734054039</v>
       </c>
       <c r="I38">
         <v>0.2697155102766148</v>
@@ -842,10 +842,10 @@
         <v>0.1198817793982254</v>
       </c>
       <c r="D39">
-        <v>0.1449574397564812</v>
+        <v>0.239392949278761</v>
       </c>
       <c r="G39">
-        <v>0.1771539023923795</v>
+        <v>0.2729799473614536</v>
       </c>
       <c r="I39">
         <v>0.2975098705209313</v>
